--- a/assets/conversation/Past-Simple.xlsx
+++ b/assets/conversation/Past-Simple.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\OneDrive\เอกสาร\GitHub\testgame\conversation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\OneDrive\เอกสาร\GitHub\testgame\assets\conversation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D1223E-A133-40D8-86E2-B498358E0296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4CC20F-30DE-4923-8E81-2D9110A8E575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{689C561B-C729-4F8B-9A5C-3D5BDC676F3F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="76">
   <si>
     <t>ID</t>
   </si>
@@ -83,99 +83,54 @@
     <t>prepared</t>
   </si>
   <si>
-    <t>preparing</t>
-  </si>
-  <si>
     <t>went</t>
   </si>
   <si>
-    <t>are</t>
-  </si>
-  <si>
     <t>was</t>
   </si>
   <si>
-    <t>have</t>
-  </si>
-  <si>
     <t>had</t>
   </si>
   <si>
-    <t>resisted</t>
-  </si>
-  <si>
     <t>resist</t>
   </si>
   <si>
     <t>were</t>
   </si>
   <si>
-    <t>seen</t>
-  </si>
-  <si>
     <t>saw</t>
   </si>
   <si>
-    <t>drive</t>
-  </si>
-  <si>
     <t>drove</t>
   </si>
   <si>
-    <t>wasn't</t>
-  </si>
-  <si>
     <t>haven't</t>
   </si>
   <si>
-    <t>taken</t>
-  </si>
-  <si>
     <t>took</t>
   </si>
   <si>
     <t>helped</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>visiting</t>
-  </si>
-  <si>
     <t>visited</t>
   </si>
   <si>
-    <t>got</t>
-  </si>
-  <si>
     <t>get</t>
   </si>
   <si>
-    <t>playing</t>
-  </si>
-  <si>
     <t>played</t>
   </si>
   <si>
-    <t>leave</t>
-  </si>
-  <si>
     <t>left</t>
   </si>
   <si>
-    <t>cooks</t>
-  </si>
-  <si>
     <t>cooked</t>
   </si>
   <si>
     <t>made</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">That sounds like fun! What </t>
     </r>
@@ -863,9 +818,6 @@
     </r>
   </si>
   <si>
-    <t>is</t>
-  </si>
-  <si>
     <r>
       <t>I</t>
     </r>
@@ -1083,9 +1035,6 @@
     </r>
   </si>
   <si>
-    <t>Are</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">That sounds like a relaxing vacation. </t>
     </r>
@@ -1214,9 +1163,6 @@
     </r>
   </si>
   <si>
-    <t>Does</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">That sounds yummy! </t>
     </r>
@@ -1359,9 +1305,6 @@
     </r>
   </si>
   <si>
-    <t>build</t>
-  </si>
-  <si>
     <t>built</t>
   </si>
   <si>
@@ -1422,9 +1365,6 @@
   </si>
   <si>
     <t>binge-watched</t>
-  </si>
-  <si>
-    <t>binge-watching</t>
   </si>
   <si>
     <r>
@@ -2461,8 +2401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0262A93E-D9F5-496F-A9AD-80A6B1082B48}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="129" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="167" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2492,7 +2432,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="42" x14ac:dyDescent="0.3">
@@ -2503,13 +2443,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
@@ -2526,7 +2466,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2">
         <v>5</v>
@@ -2549,7 +2489,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -2572,13 +2512,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F5" s="2">
         <v>2</v>
@@ -2612,7 +2552,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2">
         <v>-1</v>
@@ -2632,13 +2572,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2">
         <v>2</v>
@@ -2652,13 +2592,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
+      </c>
+      <c r="D9" s="2">
+        <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -2672,13 +2612,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>70</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
@@ -2692,13 +2632,13 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="D11" s="2">
+        <v>8</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
@@ -2712,13 +2652,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
@@ -2732,13 +2672,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
+      </c>
+      <c r="D13" s="2">
+        <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F13" s="2">
         <v>2</v>
@@ -2752,10 +2692,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>19</v>
+        <v>61</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>12</v>
@@ -2774,8 +2714,8 @@
       <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>12</v>
+      <c r="D15" s="2">
+        <v>-1</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>12</v>
@@ -2794,8 +2734,8 @@
       <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>12</v>
+      <c r="D16" s="2">
+        <v>-1</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>12</v>
@@ -2812,13 +2752,13 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
+      </c>
+      <c r="D17" s="2">
+        <v>12</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F17" s="2">
         <v>2</v>
@@ -2832,13 +2772,13 @@
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
+      </c>
+      <c r="D18" s="2">
+        <v>7</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
@@ -2852,13 +2792,13 @@
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F19" s="2">
         <v>2</v>
@@ -2872,13 +2812,13 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>93</v>
+        <v>74</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="F20" s="2">
         <v>2</v>
@@ -2892,13 +2832,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
@@ -2914,8 +2854,8 @@
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>12</v>
+      <c r="D22" s="2">
+        <v>-1</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>12</v>
@@ -2932,13 +2872,13 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F23" s="2">
         <v>2</v>
@@ -2952,13 +2892,13 @@
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2">
         <v>1</v>
@@ -2972,13 +2912,13 @@
         <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>34</v>
+        <v>63</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F25" s="2">
         <v>2</v>
@@ -2992,13 +2932,13 @@
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F26" s="2">
         <v>2</v>
@@ -3012,13 +2952,13 @@
         <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
+      </c>
+      <c r="D27" s="2">
+        <v>6</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F27" s="2">
         <v>1</v>
@@ -3032,13 +2972,13 @@
         <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F28" s="2">
         <v>1</v>
@@ -3052,13 +2992,13 @@
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>89</v>
+        <v>44</v>
+      </c>
+      <c r="D29" s="2">
+        <v>20</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2">
         <v>2</v>
@@ -3072,13 +3012,13 @@
         <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
+      </c>
+      <c r="D30" s="2">
+        <v>9</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F30" s="2">
         <v>2</v>
@@ -3092,13 +3032,13 @@
         <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
+      </c>
+      <c r="D31" s="2">
+        <v>8</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F31" s="2">
         <v>1</v>
@@ -3112,13 +3052,13 @@
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="D32" s="2">
+        <v>13</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F32" s="2">
         <v>2</v>
@@ -3134,8 +3074,8 @@
       <c r="C33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>12</v>
+      <c r="D33" s="2">
+        <v>-1</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>12</v>
@@ -3152,13 +3092,13 @@
         <v>3</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>24</v>
+        <v>48</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F34" s="2">
         <v>1</v>
@@ -3172,10 +3112,10 @@
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>16</v>
+        <v>65</v>
+      </c>
+      <c r="D35" s="2">
+        <v>10</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>15</v>
@@ -3194,8 +3134,8 @@
       <c r="C36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>12</v>
+      <c r="D36" s="2">
+        <v>-1</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>12</v>
@@ -3212,13 +3152,13 @@
         <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F37" s="2">
         <v>1</v>
@@ -3232,13 +3172,13 @@
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
+      </c>
+      <c r="D38" s="2">
+        <v>18</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F38" s="2">
         <v>2</v>
@@ -3252,13 +3192,13 @@
         <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="D39" s="2">
+        <v>8</v>
+      </c>
       <c r="E39" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F39" s="2">
         <v>1</v>
@@ -3272,13 +3212,13 @@
         <v>3</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>19</v>
+        <v>66</v>
+      </c>
+      <c r="D40" s="2">
+        <v>6</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F40" s="2">
         <v>1</v>
@@ -3292,13 +3232,13 @@
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F41" s="2">
         <v>2</v>
@@ -3312,13 +3252,13 @@
         <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
+      </c>
+      <c r="D42" s="2">
+        <v>3</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F42" s="2">
         <v>1</v>
@@ -3332,13 +3272,13 @@
         <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
+      </c>
+      <c r="D43" s="2">
+        <v>2</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F43" s="2">
         <v>2</v>
@@ -3352,13 +3292,13 @@
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
+      </c>
+      <c r="D44" s="2">
+        <v>14</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F44" s="2">
         <v>2</v>
@@ -3372,10 +3312,10 @@
         <v>2</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>12</v>
+        <v>68</v>
+      </c>
+      <c r="D45" s="2">
+        <v>-1</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>12</v>
@@ -3394,8 +3334,8 @@
       <c r="C46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>12</v>
+      <c r="D46" s="2">
+        <v>-1</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>12</v>

--- a/assets/conversation/Past-Simple.xlsx
+++ b/assets/conversation/Past-Simple.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\OneDrive\เอกสาร\GitHub\testgame\assets\conversation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Pictures\Jiw\Project\grammar-police-game\testgame\assets\conversation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4CC20F-30DE-4923-8E81-2D9110A8E575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7C891B-E477-4FE0-8F67-80C7E6D8A13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{689C561B-C729-4F8B-9A5C-3D5BDC676F3F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11860" xr2:uid="{689C561B-C729-4F8B-9A5C-3D5BDC676F3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Past-Simple" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -138,7 +136,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -148,7 +146,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -164,7 +162,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -174,7 +172,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -190,7 +188,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -200,7 +198,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -216,7 +214,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -226,7 +224,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -242,7 +240,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -252,7 +250,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -268,7 +266,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -278,7 +276,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -294,7 +292,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -304,7 +302,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -320,7 +318,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -330,7 +328,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -346,7 +344,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -356,7 +354,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -372,7 +370,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -382,7 +380,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -398,7 +396,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -408,7 +406,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -424,7 +422,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -434,7 +432,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -450,7 +448,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -460,7 +458,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -476,7 +474,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -486,7 +484,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -502,7 +500,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -512,7 +510,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -528,7 +526,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -538,7 +536,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -554,7 +552,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -564,7 +562,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -580,7 +578,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -590,7 +588,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -606,7 +604,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -616,7 +614,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -632,7 +630,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -642,7 +640,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -658,7 +656,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -668,7 +666,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -684,7 +682,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -694,7 +692,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -710,7 +708,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -720,7 +718,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -730,7 +728,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -740,7 +738,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -750,7 +748,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -760,7 +758,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -779,7 +777,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -789,7 +787,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -799,7 +797,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -809,7 +807,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -824,7 +822,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -834,7 +832,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -845,7 +843,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -855,7 +853,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -877,7 +875,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -887,7 +885,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -903,7 +901,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -913,7 +911,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -923,7 +921,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -933,7 +931,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -943,7 +941,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -959,7 +957,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -969,7 +967,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -980,7 +978,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -990,7 +988,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1006,7 +1004,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1016,7 +1014,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1026,7 +1024,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1042,7 +1040,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1052,7 +1050,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1067,7 +1065,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1077,7 +1075,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1088,7 +1086,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1098,7 +1096,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1114,7 +1112,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1124,7 +1122,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1135,7 +1133,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1144,7 +1142,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1154,7 +1152,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1170,7 +1168,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1180,7 +1178,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1190,7 +1188,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1200,7 +1198,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1215,7 +1213,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1225,7 +1223,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1240,7 +1238,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1250,7 +1248,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1266,7 +1264,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1276,7 +1274,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1286,7 +1284,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1296,7 +1294,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1315,7 +1313,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1324,7 +1322,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1334,7 +1332,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1345,7 +1343,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1355,7 +1353,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1374,7 +1372,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1384,7 +1382,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1394,7 +1392,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1404,7 +1402,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1424,7 +1422,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -1432,7 +1430,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -1440,7 +1438,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Tahoma"/>
+      <name val="Aptos Display"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="major"/>
@@ -1449,7 +1447,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Tahoma"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -1458,7 +1456,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Tahoma"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -1467,7 +1465,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Tahoma"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -1475,7 +1473,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Tahoma"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -1483,7 +1481,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Tahoma"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -1491,7 +1489,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Tahoma"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -1499,7 +1497,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Tahoma"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -1508,7 +1506,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Tahoma"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -1517,7 +1515,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Tahoma"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -1525,7 +1523,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Tahoma"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -1534,7 +1532,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Tahoma"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -1542,7 +1540,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -1551,7 +1549,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Tahoma"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -1560,7 +1558,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -1568,7 +1566,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Tahoma"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -1576,20 +1574,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Tahoma"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2026,48 +2024,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - ส่วนที่ถูกเน้น1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - ส่วนที่ถูกเน้น2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - ส่วนที่ถูกเน้น3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - ส่วนที่ถูกเน้น4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - ส่วนที่ถูกเน้น5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - ส่วนที่ถูกเน้น6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - ส่วนที่ถูกเน้น1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - ส่วนที่ถูกเน้น2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - ส่วนที่ถูกเน้น3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - ส่วนที่ถูกเน้น4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - ส่วนที่ถูกเน้น5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - ส่วนที่ถูกเน้น6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - ส่วนที่ถูกเน้น1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - ส่วนที่ถูกเน้น2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - ส่วนที่ถูกเน้น3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - ส่วนที่ถูกเน้น4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - ส่วนที่ถูกเน้น5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - ส่วนที่ถูกเน้น6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="การคำนวณ" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="ข้อความเตือน" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="ข้อความอธิบาย" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="ชื่อเรื่อง" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="เซลล์ตรวจสอบ" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="เซลล์ที่มีลิงก์" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="ดี" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
-    <cellStyle name="ป้อนค่า" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="ปานกลาง" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="ผลรวม" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="แย่" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="ส่วนที่ถูกเน้น1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="ส่วนที่ถูกเน้น2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="ส่วนที่ถูกเน้น3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="ส่วนที่ถูกเน้น4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="ส่วนที่ถูกเน้น5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="ส่วนที่ถูกเน้น6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="แสดงผล" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="หมายเหตุ" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="หัวเรื่อง 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="หัวเรื่อง 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="หัวเรื่อง 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="หัวเรื่อง 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2401,11 +2399,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0262A93E-D9F5-496F-A9AD-80A6B1082B48}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="167" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="72" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" width="8.6640625" style="2"/>
     <col min="3" max="3" width="40.83203125" style="1" customWidth="1"/>
@@ -2415,7 +2413,7 @@
     <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2435,7 +2433,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2458,7 +2456,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2481,7 +2479,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="33" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -2504,7 +2502,7 @@
       <c r="J4" s="9"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="42" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -2524,7 +2522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -2544,7 +2542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="33" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -2564,7 +2562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="33" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -2584,7 +2582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="33" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -2604,7 +2602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="33" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -2624,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="42" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -2644,7 +2642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="33" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>4</v>
       </c>
@@ -2664,7 +2662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="33" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>4</v>
       </c>
@@ -2684,7 +2682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="42" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -2704,7 +2702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>5</v>
       </c>
@@ -2724,7 +2722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>5</v>
       </c>
@@ -2744,7 +2742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>6</v>
       </c>
@@ -2764,7 +2762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>6</v>
       </c>
@@ -2784,7 +2782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>6</v>
       </c>
@@ -2804,7 +2802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>7</v>
       </c>
@@ -2824,7 +2822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>7</v>
       </c>
@@ -2844,7 +2842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>7</v>
       </c>
@@ -2864,7 +2862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>8</v>
       </c>
@@ -2884,7 +2882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>8</v>
       </c>
@@ -2904,7 +2902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>8</v>
       </c>
@@ -2924,7 +2922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>9</v>
       </c>
@@ -2944,7 +2942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>9</v>
       </c>
@@ -2964,7 +2962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>9</v>
       </c>
@@ -2984,7 +2982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>10</v>
       </c>
@@ -3004,7 +3002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>10</v>
       </c>
@@ -3024,7 +3022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>10</v>
       </c>
@@ -3044,7 +3042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>11</v>
       </c>
@@ -3064,7 +3062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>11</v>
       </c>
@@ -3084,7 +3082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>11</v>
       </c>
@@ -3104,7 +3102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <v>12</v>
       </c>
@@ -3124,7 +3122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <v>12</v>
       </c>
@@ -3144,7 +3142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="2">
         <v>12</v>
       </c>
@@ -3164,7 +3162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A38" s="2">
         <v>13</v>
       </c>
@@ -3184,7 +3182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A39" s="2">
         <v>13</v>
       </c>
@@ -3204,7 +3202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A40" s="2">
         <v>13</v>
       </c>
@@ -3224,7 +3222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A41" s="2">
         <v>14</v>
       </c>
@@ -3244,7 +3242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A42" s="2">
         <v>14</v>
       </c>
@@ -3264,7 +3262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="2">
         <v>14</v>
       </c>
@@ -3284,7 +3282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A44" s="2">
         <v>15</v>
       </c>
@@ -3304,7 +3302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="33" x14ac:dyDescent="0.45">
       <c r="A45" s="2">
         <v>15</v>
       </c>
@@ -3324,7 +3322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="2">
         <v>15</v>
       </c>
